--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF3D160-3EE0-49FF-955A-234577530292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DEF3D160-3EE0-49FF-955A-234577530292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A624F76-00CA-4BCB-94D7-550BF2E4F358}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="148">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -466,9 +466,6 @@
     <t>for(Product p: products) {</t>
   </si>
   <si>
-    <t>if(p.getName().contains(searchItem) || (p.getProductId()+"").equals(searchItem))</t>
-  </si>
-  <si>
     <t>Req02_L04</t>
   </si>
   <si>
@@ -478,9 +475,6 @@
     <t>Req02_L05</t>
   </si>
   <si>
-    <t>isFound = true;</t>
-  </si>
-  <si>
     <t>}</t>
   </si>
   <si>
@@ -490,9 +484,6 @@
     <t>return new Product(0, null, 0.0, 0, 0, 0, null);</t>
   </si>
   <si>
-    <t>return null;</t>
-  </si>
-  <si>
     <t>Req02_L06</t>
   </si>
   <si>
@@ -500,15 +491,6 @@
   </si>
   <si>
     <t>Req02_L08</t>
-  </si>
-  <si>
-    <t>1 - 2(F) - 6(T) - 7 - 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - 2(T) - 3(T) - 4 - 9 </t>
-  </si>
-  <si>
-    <t>1 - 2(T) - 3(F) - 5 - 2(T) - 3(T) - 4 - 9</t>
   </si>
   <si>
     <r>
@@ -535,30 +517,18 @@
     <t>(p.getProductId()+"").equals(searcheItem)</t>
   </si>
   <si>
-    <t>p.getName().contains(searchItem)||(p.getProductId()+"").equals(searcheItem)</t>
-  </si>
-  <si>
     <t>F02_P04</t>
   </si>
   <si>
-    <t xml:space="preserve">"product2" </t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>1-2-3-4-9</t>
-  </si>
-  <si>
     <t>"prd"</t>
   </si>
   <si>
     <t>{6, "product2", 1.0, 10, 5, 20, [13:14]}</t>
   </si>
   <si>
-    <t>1-2-3-5-6-8-9</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -571,15 +541,9 @@
     <t>"prd" (lista vida)</t>
   </si>
   <si>
-    <t>1-2-6-7-9</t>
-  </si>
-  <si>
     <t>F02_TC04</t>
   </si>
   <si>
-    <t>"1"</t>
-  </si>
-  <si>
     <t>F02_TC05</t>
   </si>
   <si>
@@ -613,7 +577,103 @@
     <t>{4, "products4", 11.0, 2, 1, 10, [5:8:7:7]}</t>
   </si>
   <si>
-    <t>1 - 2(T) - 3(F) -5 - 2(F) - 6(F) - 8 - 9</t>
+    <t>if(p.getName().contains(searchItem))</t>
+  </si>
+  <si>
+    <t>retrun null;</t>
+  </si>
+  <si>
+    <t>isFound=true;</t>
+  </si>
+  <si>
+    <t>if((p.getProductId()+"").equals(searchItem))</t>
+  </si>
+  <si>
+    <t>Req02_L09</t>
+  </si>
+  <si>
+    <t>Req02_L10</t>
+  </si>
+  <si>
+    <t>Req02_L11</t>
+  </si>
+  <si>
+    <t>1 - 2(T) - 3(F) -5(F) - 7 - 2(F) - 8(F) - 10 - 11</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 8(T) - 9 - 11</t>
+  </si>
+  <si>
+    <t>1 - 2(T) - 3(T) - 4 - 11</t>
+  </si>
+  <si>
+    <t>F02_P05</t>
+  </si>
+  <si>
+    <t>1 - 2(T) - 3(F) - 5(F) - 7 - 2(T) - 3(T) - 4 - 11</t>
+  </si>
+  <si>
+    <t>1-2-3-5-7-4-11</t>
+  </si>
+  <si>
+    <t>1-2-3-5-7-8-10-11</t>
+  </si>
+  <si>
+    <t>1-2-8-9-11</t>
+  </si>
+  <si>
+    <t>1-2-3-5-6-11</t>
+  </si>
+  <si>
+    <t>"Clock"</t>
+  </si>
+  <si>
+    <t>1 - 2(T) - 3(F) - 5(F) - 7 - 2(T) - 3(F) - 5(T) - 6 - 11</t>
+  </si>
+  <si>
+    <t>{4,products4,11.0,2,1,10,5:8:7:7}</t>
+  </si>
+  <si>
+    <t>list=[{1,Clock,7.45,7,2,20,1:2:3}</t>
+  </si>
+  <si>
+    <t>{5,MyNewProduct,100.0,102,100,150,2:13}</t>
+  </si>
+  <si>
+    <t>{6,product2,1.0,10,5,20,13:14}</t>
+  </si>
+  <si>
+    <t>{7,product7,10.0,15,2,15,13:14}</t>
+  </si>
+  <si>
+    <t>{8,product2,10.0,-2,0,20,13:14}</t>
+  </si>
+  <si>
+    <t>{9,product1,15.0,5,2,10,13:14</t>
+  </si>
+  <si>
+    <t>{10,product5,1.0,10,5,20,13:14}</t>
+  </si>
+  <si>
+    <t>{11,product7,10.0,15,2,15,13:14}]</t>
+  </si>
+  <si>
+    <t>"product2" , list</t>
+  </si>
+  <si>
+    <t>"prd", list</t>
+  </si>
+  <si>
+    <t>"prd", []</t>
+  </si>
+  <si>
+    <t>"Clock", list</t>
+  </si>
+  <si>
+    <t>"products4", list</t>
+  </si>
+  <si>
+    <t>"10", list</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1405,50 +1465,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1464,53 +1524,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1527,9 +1641,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1578,56 +1689,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1651,15 +1718,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>8042</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>5572</xdr:rowOff>
+      <xdr:colOff>69614</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>13192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>421777</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>49081</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1687,8 +1754,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="617642" y="3899392"/>
-          <a:ext cx="5008595" cy="1312689"/>
+          <a:off x="679214" y="4272772"/>
+          <a:ext cx="3964727" cy="1541288"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1723,15 +1790,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>461010</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>58894</xdr:rowOff>
+      <xdr:colOff>555797</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>36034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>49530</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>597092</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>129913</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1759,8 +1826,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6275070" y="1521934"/>
-          <a:ext cx="4465320" cy="3416199"/>
+          <a:off x="6369857" y="1316194"/>
+          <a:ext cx="4308495" cy="3636806"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2266,8 +2333,8 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView topLeftCell="C6" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2278,8 +2345,9 @@
     <col min="5" max="5" width="30.33203125" style="11" customWidth="1"/>
     <col min="6" max="16" width="8.88671875" style="11"/>
     <col min="17" max="17" width="10.6640625" style="11" customWidth="1"/>
-    <col min="18" max="19" width="8.88671875" style="11"/>
-    <col min="20" max="20" width="14.44140625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="11"/>
+    <col min="19" max="19" width="14.21875" style="11" customWidth="1"/>
+    <col min="20" max="20" width="17" style="11" customWidth="1"/>
     <col min="21" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
@@ -2299,18 +2367,18 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="48" t="s">
@@ -2349,65 +2417,65 @@
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="I8" s="14"/>
-      <c r="Q8" s="53" t="s">
+      <c r="Q8" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
       <c r="T8" s="36">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="I9" s="41"/>
-      <c r="Q9" s="53" t="s">
+      <c r="Q9" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
       <c r="T9" s="36">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="59"/>
-      <c r="Q10" s="53" t="s">
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="58"/>
+      <c r="Q10" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="53" t="s">
+      <c r="R10" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="53"/>
+      <c r="S10" s="65"/>
       <c r="T10" s="36">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2415,57 +2483,57 @@
         <v>29</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="D11" s="66"/>
       <c r="E11" s="66"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="62"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
+        <v>84</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="62"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="61"/>
       <c r="Q13" s="48" t="s">
         <v>45</v>
       </c>
@@ -2474,38 +2542,40 @@
       <c r="T13" s="49"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
+      <c r="B14" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="62"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="61"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="62"/>
+        <v>89</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="61"/>
       <c r="Q15" s="34" t="s">
         <v>12</v>
       </c>
@@ -2516,156 +2586,191 @@
       <c r="T15" s="67"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="62"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="61"/>
       <c r="Q16" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="R16" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
+      <c r="R16" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="62"/>
+      <c r="B17" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
       <c r="Q17" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
+      <c r="R17" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="62"/>
+        <v>119</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="61"/>
       <c r="Q18" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="R18" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
+      <c r="R18" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
     </row>
     <row r="19" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="29"/>
-      <c r="C19" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="62"/>
+      <c r="C19" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
       <c r="Q19" s="37" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="R19" s="68" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="S19" s="69"/>
       <c r="T19" s="70"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="62"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
+      <c r="B20" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
+      <c r="Q20" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="R20" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="62"/>
+      <c r="B21" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="61"/>
       <c r="Q21" s="37"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="62"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="62"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="61"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="65"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="31">
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2682,19 +2787,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2707,10 +2799,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AB16"/>
+  <dimension ref="B1:AB25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2726,14 +2818,14 @@
     <col min="9" max="9" width="9.77734375" style="11" customWidth="1"/>
     <col min="10" max="10" width="13" style="11" customWidth="1"/>
     <col min="11" max="11" width="8.21875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="2.77734375" style="11" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" style="11"/>
     <col min="15" max="15" width="8.6640625" style="11" customWidth="1"/>
     <col min="16" max="16" width="8.77734375" style="11" customWidth="1"/>
     <col min="17" max="17" width="9.77734375" style="11" customWidth="1"/>
-    <col min="18" max="18" width="3.77734375" style="11" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="9.109375" style="11" customWidth="1"/>
     <col min="20" max="20" width="4.21875" style="11" customWidth="1"/>
     <col min="21" max="21" width="5.44140625" style="11" customWidth="1"/>
     <col min="22" max="22" width="4" style="11" customWidth="1"/>
@@ -2756,161 +2848,164 @@
       <c r="G1" s="50"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B4" s="126"/>
+    </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
     </row>
     <row r="7" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="76" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="77" t="s">
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="82" t="s">
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
     </row>
     <row r="8" spans="2:28" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="83"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="86"/>
-      <c r="J8" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" s="75"/>
-      <c r="P8" s="77" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="79"/>
+      <c r="H8" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="72"/>
+      <c r="J8" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="79"/>
+      <c r="P8" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="77" t="s">
+      <c r="Q8" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="78" t="s">
+      <c r="R8" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="79"/>
-      <c r="T8" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="U8" s="79"/>
-      <c r="V8" s="82">
+      <c r="S8" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="T8" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="U8" s="82"/>
+      <c r="V8" s="71">
         <v>0</v>
       </c>
-      <c r="W8" s="82">
+      <c r="W8" s="71">
         <v>1</v>
       </c>
-      <c r="X8" s="82">
+      <c r="X8" s="71">
         <v>2</v>
       </c>
-      <c r="Y8" s="82" t="s">
+      <c r="Y8" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="82" t="s">
+      <c r="Z8" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="AA8" s="82" t="s">
+      <c r="AA8" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="AB8" s="82" t="s">
+      <c r="AB8" s="71" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="83"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="76"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="15" t="s">
         <v>22</v>
       </c>
@@ -2929,71 +3024,65 @@
       <c r="K9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="O9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="81"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="82"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
     </row>
     <row r="10" spans="2:28" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>104</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
-      <c r="R10" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="S10" s="72"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="72"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="U10" s="86"/>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
@@ -3001,7 +3090,7 @@
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
@@ -3009,68 +3098,66 @@
         <v>47</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="M11" s="19" t="s">
-        <v>104</v>
-      </c>
+      <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="20"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="72"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
       <c r="Y11" s="21"/>
       <c r="Z11" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AA11" s="21"/>
       <c r="AB11" s="21"/>
     </row>
     <row r="12" spans="2:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -3079,19 +3166,19 @@
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="R12" s="71"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="72"/>
+        <v>96</v>
+      </c>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="86"/>
       <c r="V12" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
@@ -3102,46 +3189,44 @@
     </row>
     <row r="13" spans="2:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K13" s="19"/>
-      <c r="L13" s="19" t="s">
-        <v>104</v>
-      </c>
+      <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="S13" s="72"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="72"/>
+      <c r="R13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="S13" s="20"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
@@ -3151,47 +3236,45 @@
     </row>
     <row r="14" spans="2:28" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>104</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="U14" s="72"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="U14" s="86"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
       <c r="X14" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
@@ -3200,48 +3283,46 @@
     </row>
     <row r="15" spans="2:28" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K15" s="19"/>
-      <c r="L15" s="19" t="s">
-        <v>104</v>
-      </c>
+      <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="U15" s="72"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="T15" s="85"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
       <c r="Y15" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
@@ -3251,14 +3332,86 @@
       <c r="B16" s="22"/>
       <c r="C16" s="11"/>
     </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="128" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="127" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="127" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="127" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="127" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="127" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="127" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
+  <mergeCells count="44">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -3275,24 +3428,19 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="E7:E9"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="P7:U7"/>
     <mergeCell ref="T8:U9"/>
-    <mergeCell ref="R8:S9"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3307,7 +3455,7 @@
   <dimension ref="B1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3340,55 +3488,55 @@
       <c r="G1" s="50"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="109" t="s">
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="110"/>
+      <c r="L4" s="88"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="115"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3400,140 +3548,140 @@
       <c r="B6" s="23">
         <v>8</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="104" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
       <c r="K6" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="23">
         <v>9</v>
       </c>
-      <c r="C7" s="125"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="110"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="88"/>
       <c r="K7" s="17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="23">
         <v>10</v>
       </c>
-      <c r="C8" s="125"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="88"/>
       <c r="K8" s="44" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L8" s="44" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B9" s="23">
         <v>11</v>
       </c>
-      <c r="C9" s="125"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="110"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88"/>
       <c r="K9" s="17" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>12</v>
       </c>
-      <c r="C10" s="125"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="23" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
       <c r="K10" s="17" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B11" s="23">
         <v>13</v>
       </c>
-      <c r="C11" s="125"/>
+      <c r="C11" s="104"/>
       <c r="D11" s="23" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
       <c r="K11" s="17" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3544,83 +3692,83 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89" t="s">
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="87" t="s">
+      <c r="G13" s="108"/>
+      <c r="H13" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="111" t="s">
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="112"/>
+      <c r="N13" s="90"/>
     </row>
     <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="102" t="s">
+      <c r="E14" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="F14" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="96" t="s">
+      <c r="I14" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="96" t="s">
+      <c r="J14" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="98" t="s">
+      <c r="K14" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="106" t="s">
+      <c r="L14" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="108" t="s">
+      <c r="M14" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="92" t="s">
+      <c r="N14" s="97" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="101"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="93"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="110"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="29">
@@ -3663,6 +3811,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="D1:G1"/>
@@ -3679,22 +3843,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3709,15 +3857,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3861,6 +4000,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
   <ds:schemaRefs>
@@ -3871,14 +4019,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3894,4 +4034,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DEF3D160-3EE0-49FF-955A-234577530292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A624F76-00CA-4BCB-94D7-550BF2E4F358}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{DEF3D160-3EE0-49FF-955A-234577530292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{469C6246-9656-4DCF-9D98-AD02D9FD1F74}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="151">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -538,9 +538,6 @@
     <t>{0, null, 0.0, 0, 0, 0, null}</t>
   </si>
   <si>
-    <t>"prd" (lista vida)</t>
-  </si>
-  <si>
     <t>F02_TC04</t>
   </si>
   <si>
@@ -674,6 +671,18 @@
   </si>
   <si>
     <t>"10", list</t>
+  </si>
+  <si>
+    <t>lista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list </t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -1455,6 +1464,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1465,7 +1477,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1476,9 +1494,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1506,9 +1521,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1523,178 +1535,175 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2201,12 +2210,12 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="14"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="42" t="s">
@@ -2333,7 +2342,7 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="E6" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R19" sqref="R19:T19"/>
     </sheetView>
   </sheetViews>
@@ -2354,74 +2363,74 @@
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="14"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="Q6" s="48" t="s">
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="Q6" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="I8" s="14"/>
-      <c r="Q8" s="65" t="s">
+      <c r="Q8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
       <c r="T8" s="36">
         <v>5</v>
       </c>
@@ -2430,19 +2439,19 @@
       <c r="B9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="I9" s="41"/>
-      <c r="Q9" s="65" t="s">
+      <c r="Q9" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
       <c r="T9" s="36">
         <v>5</v>
       </c>
@@ -2451,29 +2460,29 @@
       <c r="B10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="58"/>
-      <c r="Q10" s="65" t="s">
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="Q10" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="65" t="s">
+      <c r="R10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="65"/>
+      <c r="S10" s="54"/>
       <c r="T10" s="36">
         <v>5</v>
       </c>
@@ -2482,295 +2491,280 @@
       <c r="B11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
+      <c r="C11" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+      <c r="C13" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="61"/>
-      <c r="Q13" s="48" t="s">
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="Q13" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="61"/>
+      <c r="C15" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
       <c r="Q15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="67" t="s">
+      <c r="R15" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="43"/>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="61"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63"/>
       <c r="Q16" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="R16" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
+      <c r="R16" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="61"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
       <c r="Q17" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
+      <c r="R17" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="61"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
       <c r="Q18" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="R18" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
+      <c r="R18" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
     </row>
     <row r="19" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="29"/>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="63"/>
       <c r="Q19" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="R19" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="S19" s="69"/>
-      <c r="T19" s="70"/>
+      <c r="R19" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="S19" s="70"/>
+      <c r="T19" s="71"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="61"/>
+        <v>119</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="63"/>
       <c r="Q20" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="R20" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="R20" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="61"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="63"/>
       <c r="Q21" s="37"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2787,6 +2781,21 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2801,8 +2810,8 @@
   </sheetPr>
   <dimension ref="B1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A9" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,172 +2849,172 @@
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B1" s="14"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="126"/>
+      <c r="B4" s="48"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="74"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
     </row>
     <row r="7" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="80" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="73" t="s">
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="71" t="s">
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
     </row>
     <row r="8" spans="2:28" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="74"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="79" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="72" t="s">
+      <c r="G8" s="82"/>
+      <c r="H8" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="79" t="s">
+      <c r="I8" s="84"/>
+      <c r="J8" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79" t="s">
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="79"/>
-      <c r="P8" s="73" t="s">
+      <c r="O8" s="82"/>
+      <c r="P8" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="73" t="s">
+      <c r="R8" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="73" t="s">
+      <c r="S8" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="T8" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="U8" s="82"/>
-      <c r="V8" s="71">
+      <c r="T8" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="U8" s="87"/>
+      <c r="V8" s="79">
         <v>0</v>
       </c>
-      <c r="W8" s="71">
+      <c r="W8" s="79">
         <v>1</v>
       </c>
-      <c r="X8" s="71">
+      <c r="X8" s="79">
         <v>2</v>
       </c>
-      <c r="Y8" s="71" t="s">
+      <c r="Y8" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="71" t="s">
+      <c r="Z8" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="AA8" s="71" t="s">
+      <c r="AA8" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AB8" s="71" t="s">
+      <c r="AB8" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="74"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="80"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="15" t="s">
         <v>22</v>
       </c>
@@ -3032,32 +3041,32 @@
       <c r="O9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="71"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
     </row>
     <row r="10" spans="2:28" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>96</v>
@@ -3079,10 +3088,10 @@
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
-      <c r="T10" s="85" t="s">
+      <c r="T10" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="U10" s="86"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
@@ -3098,13 +3107,13 @@
         <v>47</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>96</v>
@@ -3130,8 +3139,8 @@
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="86"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
@@ -3147,13 +3156,13 @@
         <v>100</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="44" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19" t="s">
@@ -3175,8 +3184,8 @@
       </c>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="86"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="75"/>
       <c r="V12" s="21" t="s">
         <v>96</v>
       </c>
@@ -3185,20 +3194,22 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
+      <c r="AB12" s="21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="13" spans="2:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>96</v>
@@ -3222,8 +3233,8 @@
         <v>96</v>
       </c>
       <c r="S13" s="20"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="86"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21" t="s">
         <v>96</v>
@@ -3232,20 +3243,22 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
+      <c r="AB13" s="21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="14" spans="2:28" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>96</v>
@@ -3267,10 +3280,10 @@
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="85" t="s">
+      <c r="T14" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="U14" s="86"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
       <c r="X14" s="21" t="s">
@@ -3279,20 +3292,22 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
+      <c r="AB14" s="21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="2:28" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>96</v>
@@ -3316,8 +3331,8 @@
       <c r="S15" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="T15" s="85"/>
-      <c r="U15" s="86"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
@@ -3326,91 +3341,93 @@
       </c>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
+      <c r="AB15" s="21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="16" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="127" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="127" t="s">
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="127" t="s">
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="127" t="s">
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="127" t="s">
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="127" t="s">
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="127" t="s">
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="127" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="T8:U9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
@@ -3427,20 +3444,20 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="T8:U9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3452,10 +3469,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:N16"/>
+  <dimension ref="B1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3480,63 +3497,65 @@
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="14"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="87" t="s">
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="88"/>
+      <c r="L4" s="113"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="93"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="100"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3548,20 +3567,22 @@
       <c r="B6" s="23">
         <v>8</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="128" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="24"/>
+        <v>112</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>148</v>
+      </c>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
       <c r="K6" s="17" t="s">
         <v>98</v>
       </c>
@@ -3573,18 +3594,20 @@
       <c r="B7" s="23">
         <v>9</v>
       </c>
-      <c r="C7" s="104"/>
+      <c r="C7" s="128"/>
       <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="88"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="113"/>
       <c r="K7" s="17" t="s">
         <v>99</v>
       </c>
@@ -3596,18 +3619,20 @@
       <c r="B8" s="23">
         <v>10</v>
       </c>
-      <c r="C8" s="104"/>
+      <c r="C8" s="128"/>
       <c r="D8" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="88"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="113"/>
       <c r="K8" s="44" t="s">
         <v>101</v>
       </c>
@@ -3619,69 +3644,75 @@
       <c r="B9" s="23">
         <v>11</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="128"/>
       <c r="D9" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="23"/>
+        <v>130</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="113"/>
       <c r="K9" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B10" s="46">
         <v>12</v>
       </c>
-      <c r="C10" s="104"/>
+      <c r="C10" s="128"/>
       <c r="D10" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="23"/>
+        <v>105</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
       <c r="K10" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B11" s="23">
         <v>13</v>
       </c>
-      <c r="C11" s="104"/>
+      <c r="C11" s="128"/>
       <c r="D11" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="23"/>
+        <v>109</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>149</v>
+      </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
       <c r="K11" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3692,83 +3723,83 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="105" t="s">
+      <c r="G13" s="93"/>
+      <c r="H13" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="89" t="s">
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="90"/>
+      <c r="N13" s="115"/>
     </row>
     <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="111" t="s">
+      <c r="H14" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="113" t="s">
+      <c r="I14" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="113" t="s">
+      <c r="J14" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="115" t="s">
+      <c r="K14" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="123" t="s">
+      <c r="L14" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="125" t="s">
+      <c r="M14" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="97" t="s">
+      <c r="N14" s="95" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="118"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="110"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="96"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="29">
@@ -3809,8 +3840,96 @@
         <v>6</v>
       </c>
     </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="41">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C6:C11"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="G14:G15"/>
@@ -3827,22 +3946,6 @@
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="M14:M15"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C6:C11"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3857,6 +3960,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4000,15 +4112,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
   <ds:schemaRefs>
@@ -4019,6 +4122,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4034,12 +4145,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>